--- a/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_g1.xlsx
+++ b/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577370&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5773E0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB33E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577450&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5774C0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB34C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577530&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5775A0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB35A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577610&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577680&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5776F0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB36F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577760&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5777D0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB37D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577840&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5778B0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB38B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577920&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577990&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577A00&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577A70&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577AE0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577B50&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577BC0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577C30&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577CA0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577D10&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577D80&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577DF0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577E60&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577ED0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577F40&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB3F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598040&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5980B0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD40B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598120&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598190&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598200&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598270&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5982E0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD42E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598350&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5983C0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD43C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598430&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5984A0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD44A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598510&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598580&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5985F0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD45F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598660&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5986D0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD46D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598740&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5987B0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD47B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598820&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598890&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598900&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD4900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598970&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">

--- a/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_g1.xlsx
+++ b/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B259A0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL1209675</t>
+          <t>CHEMBL222419</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4ccncc4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>COc1cc2ncn(-c3cc(O[C@@H](C)c4ccccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4ccncc4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>COc1cc2ncn(-c3cc(O[C@@H](C)c4ccccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>474.97</v>
+        <v>457.94</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>83.03</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5773E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25A10&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL428496</t>
+          <t>CHEMBL1208966</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COC[C@H]1OC(=O)c2coc3c2[C@@]1(C)C1=C(C3=O)[C@@H]2CCC(=O)[C@@]2(C)C[C@H]1OC(C)=O</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(NC5CCN(C)CC5)n4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COC[C@H]1OC(=O)c2coc3c2[C@@]1(C)C1=C(C3=O)[C@@H]2CCC(=O)[C@@]2(C)C[C@H]1OC(C)=O</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(NC5CCN(C)CC5)n4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>428.44</v>
+        <v>588.14</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
         <v>8</v>
       </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>109.11</v>
+        <v>111.19</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25A80&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL477407</t>
+          <t>CHEMBL1209015</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C=CCOC(=O)/C(C#N)=C1/S[C@@H](CNc2ccc(NC(=O)NCCN3CCCC3)cc2)C(=O)N1CC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cnn(CCN5CCOCC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C=CCOC(=O)/C(C#N)=C1/S[C@@H](CNc2ccc(NC(=O)NCCN3CCCC3)cc2)C(=O)N1CC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cnn(CCN5CCOCC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>512.64</v>
+        <v>577.11</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>126.8</v>
+        <v>100.43</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5774C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25AF0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL477408</t>
+          <t>CHEMBL1209675</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C=CCOC(=O)/C(C#N)=C1/SC(CNc2ccc(C(C)=O)cc2)C(=O)N1CC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4ccncc4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C=CCOC(=O)/C(C#N)=C1/SC(CNc2ccc(C(C)=O)cc2)C(=O)N1CC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4ccncc4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>399.47</v>
+        <v>474.97</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>99.5</v>
+        <v>83.03</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25B60&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL477615</t>
+          <t>CHEMBL1208958</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CCCOC(=O)/C(C#N)=c1\s/c(=C/Nc2ccc(O)cc2)c(=O)n1CC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N5CCN(C)CC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CCCOC(=O)/C(C#N)=c1\s/c(=C/Nc2ccc(O)cc2)c(=O)n1CC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N5CCN(C)CC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>373.43</v>
+        <v>573.12</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
       </c>
       <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
         <v>6</v>
       </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>104.35</v>
+        <v>89.51000000000001</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5775A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25BD0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL477616</t>
+          <t>CHEMBL428496</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CCOC(=O)/C(C#N)=c1/s/c(=C/Nc2ccc(NC(=O)NCCN3CCCC3)cc2)c(=O)n1CC</t>
+          <t>COC[C@H]1OC(=O)c2coc3c2[C@@]1(C)C1=C(C3=O)[C@@H]2CCC(=O)[C@@]2(C)C[C@H]1OC(C)=O</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CCOC(=O)/C(C#N)=c1/s/c(=C/Nc2ccc(NC(=O)NCCN3CCCC3)cc2)c(=O)n1CC</t>
+          <t>COC[C@H]1OC(=O)c2coc3c2[C@@]1(C)C1=C(C3=O)[C@@H]2CCC(=O)[C@@]2(C)C[C@H]1OC(C)=O</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>498.61</v>
+        <v>428.44</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9</v>
-      </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>128.49</v>
+        <v>109.11</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25C40&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL475881</t>
+          <t>CHEMBL1095709</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CCN(CC)CCNC(=O)c1c[nH]c2ccc(N/C=c3/s/c(=C(\C#N)C(=O)NCC(F)(F)F)n(CC)c3=O)cc12</t>
+          <t>NC(=O)c1nn(CC(F)(F)F)c2c1CCc1cnc(Nc3ccccc3)nc1-2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CCN(CC)CCNC(=O)c1c[nH]c2ccc(N/C=c3/s/c(=C(\C#N)C(=O)NCC(F)(F)F)n(CC)c3=O)cc12</t>
+          <t>NC(=O)c1nn(CC(F)(F)F)c2c1CCc1cnc(Nc3ccccc3)nc1-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>577.63</v>
+        <v>388.35</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>135.05</v>
+        <v>98.72</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25CB0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL503480</t>
+          <t>CHEMBL480383</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CCOC(=O)/C(C#N)=c1/s/c(=C/Nc2cccc(C)c2)c(=O)n1CC</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccsc4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CCOC(=O)/C(C#N)=c1/s/c(=C/Nc2cccc(C)c2)c(=O)n1CC</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccsc4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>357.44</v>
+        <v>415.5</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1128,16 +1128,16 @@
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>84.12</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5776F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25D20&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL520284</t>
+          <t>CHEMBL1222044</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(-c4nnn[nH]4)s3)c2cc1OC</t>
+          <t>NC(=O)c1sc2c([N+](=O)[O-])cc(SC(F)(F)F)cc2[n+]1[O-]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(-c4nnn[nH]4)s3)c2cc1OC</t>
+          <t>NC(=O)c1sc2c([N+](=O)[O-])cc(SC(F)(F)F)cc2[n+]1[O-]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>502.48</v>
+        <v>339.28</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>99.97</v>
+        <v>113.17</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25D90&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL476136</t>
+          <t>CHEMBL484473</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CCn1c(=O)/c(=C\Nc2ccc(CCN3CCCC3)cc2)s/c1=C(\C#N)C(=O)NCC(F)(F)F</t>
+          <t>Cc1nn(-c2cc(Cl)cc(CCC(=O)O)c2)c2cc(N[C@@H](C)c3ccccc3)ncc12</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CCn1c(=O)/c(=C\Nc2ccc(CCN3CCCC3)cc2)s/c1=C(\C#N)C(=O)NCC(F)(F)F</t>
+          <t>Cc1nn(-c2cc(Cl)cc(CCC(=O)O)c2)c2cc(N[C@@H](C)c3ccccc3)ncc12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>493.56</v>
+        <v>434.93</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -1264,16 +1264,16 @@
         <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>90.16</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5777D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25E00&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL559891</t>
+          <t>CHEMBL477407</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NC(=O)c1sc(-c2cnn3ccccc23)cc1OCc1ccccc1C(F)(F)F</t>
+          <t>C=CCOC(=O)/C(C#N)=C1/S[C@@H](CNc2ccc(NC(=O)NCCN3CCCC3)cc2)C(=O)N1CC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NC(=O)c1sc(-c2cnn3ccccc23)cc1OCc1ccccc1C(F)(F)F</t>
+          <t>C=CCOC(=O)/C(C#N)=C1/S[C@@H](CNc2ccc(NC(=O)NCCN3CCCC3)cc2)C(=O)N1CC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>417.41</v>
+        <v>512.64</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
         <v>3</v>
       </c>
-      <c r="J13" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4</v>
-      </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>69.62</v>
+        <v>126.8</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25E70&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL476782</t>
+          <t>CHEMBL477408</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CCn1c(=O)/c(=C\Nc2cccc(NC(=O)C(C)(C)C)c2)s/c1=C(\C#N)C(=O)NC1(CO)CCCC1</t>
+          <t>C=CCOC(=O)/C(C#N)=C1/SC(CNc2ccc(C(C)=O)cc2)C(=O)N1CC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CCn1c(=O)/c(=C\Nc2cccc(NC(=O)C(C)(C)C)c2)s/c1=C(\C#N)C(=O)NC1(CO)CCCC1</t>
+          <t>C=CCOC(=O)/C(C#N)=C1/SC(CNc2ccc(C(C)=O)cc2)C(=O)N1CC</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>511.65</v>
+        <v>399.47</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>136.25</v>
+        <v>99.5</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5778B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25EE0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL162</t>
+          <t>CHEMBL477615</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>CCCOC(=O)/C(C#N)=c1\s/c(=C/Nc2ccc(O)cc2)c(=O)n1CC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>CCCOC(=O)/C(C#N)=c1\s/c(=C/Nc2ccc(O)cc2)c(=O)n1CC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>466.54</v>
+        <v>373.43</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="K15" t="n">
-        <v>8</v>
-      </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>69.45</v>
+        <v>104.35</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25F50&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL522618</t>
+          <t>CHEMBL477616</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1cc2c(-c3ccc4c(c3)OCO4)noc2cn1)c1ccccc1</t>
+          <t>CCOC(=O)/C(C#N)=c1/s/c(=C/Nc2ccc(NC(=O)NCCN3CCCC3)cc2)c(=O)n1CC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1cc2c(-c3ccc4c(c3)OCO4)noc2cn1)c1ccccc1</t>
+          <t>CCOC(=O)/C(C#N)=c1/s/c(=C/Nc2ccc(NC(=O)NCCN3CCCC3)cc2)c(=O)n1CC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>359.38</v>
+        <v>498.61</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>69.41</v>
+        <v>128.49</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B25FC0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL476138</t>
+          <t>CHEMBL475881</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CCn1c(=O)/c(=C\Nc2ccccc2)s/c1=C(\C#N)C(=O)N1CCCC1</t>
+          <t>CCN(CC)CCNC(=O)c1c[nH]c2ccc(N/C=c3/s/c(=C(\C#N)C(=O)NCC(F)(F)F)n(CC)c3=O)cc12</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CCn1c(=O)/c(=C\Nc2ccccc2)s/c1=C(\C#N)C(=O)N1CCCC1</t>
+          <t>CCN(CC)CCNC(=O)c1c[nH]c2ccc(N/C=c3/s/c(=C(\C#N)C(=O)NCC(F)(F)F)n(CC)c3=O)cc12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>368.46</v>
+        <v>577.63</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K17" t="n">
         <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>78.13</v>
+        <v>135.05</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26030&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL478654</t>
+          <t>CHEMBL503480</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CC(=O)N(C)c1cccc(Nc2nc(NCCc3cccs3)ncc2-c2nn[nH]n2)c1</t>
+          <t>CCOC(=O)/C(C#N)=c1/s/c(=C/Nc2cccc(C)c2)c(=O)n1CC</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CC(=O)N(C)c1cccc(Nc2nc(NCCc3cccs3)ncc2-c2nn[nH]n2)c1</t>
+          <t>CCOC(=O)/C(C#N)=c1/s/c(=C/Nc2cccc(C)c2)c(=O)n1CC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>435.52</v>
+        <v>357.44</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>124.61</v>
+        <v>84.12</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B260A0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL475946</t>
+          <t>CHEMBL516362</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CCNC(=O)/C(C#N)=c1\s/c(=C/Nc2cccc(C(=O)NCCCN3CCCC3)c2)c(=O)n1CC</t>
+          <t>COc1cc2ncn(-c3cc(OCCCc4ccccc4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CCNC(=O)/C(C#N)=c1\s/c(=C/Nc2cccc(C(=O)NCCCN3CCCC3)c2)c(=O)n1CC</t>
+          <t>COc1cc2ncn(-c3cc(OCCCc4ccccc4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>496.64</v>
+        <v>437.52</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>119.26</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26110&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL557878</t>
+          <t>CHEMBL520284</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cn1cncc1-c1cc(OCc2ccccc2C(F)(F)F)c(C(N)=O)s1</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(-c4nnn[nH]4)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cn1cncc1-c1cc(OCc2ccccc2C(F)(F)F)c(C(N)=O)s1</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(-c4nnn[nH]4)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>381.38</v>
+        <v>502.48</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>70.14</v>
+        <v>99.97</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26180&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL476124</t>
+          <t>CHEMBL476136</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NC(=O)c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-]</t>
+          <t>CCn1c(=O)/c(=C\Nc2ccc(CCN3CCCC3)cc2)s/c1=C(\C#N)C(=O)NCC(F)(F)F</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NC(=O)c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-]</t>
+          <t>CCn1c(=O)/c(=C\Nc2ccc(CCN3CCCC3)cc2)s/c1=C(\C#N)C(=O)NCC(F)(F)F</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>307.21</v>
+        <v>493.56</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>113.17</v>
+        <v>90.16</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B261F0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL516110</t>
+          <t>CHEMBL559891</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(C(=O)Nc3n[nH]c4c3CN(C(=O)Cc3cccs3)C4)cc2)CC1</t>
+          <t>NC(=O)c1sc(-c2cnn3ccccc23)cc1OCc1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(C(=O)Nc3n[nH]c4c3CN(C(=O)Cc3cccs3)C4)cc2)CC1</t>
+          <t>NC(=O)c1sc(-c2cnn3ccccc23)cc1OCc1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>450.57</v>
+        <v>417.41</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>84.56999999999999</v>
+        <v>69.62</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26260&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL477393</t>
+          <t>CHEMBL1094402</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CCCN(CC1CC1)c1nc(NC(C)c2ccccc2)ncc1C#N</t>
+          <t>NC(=O)c1nn(C2CCCCC2)c2c1CCc1cnc(Nc3ccccc3)nc1-2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CCCN(CC1CC1)c1nc(NC(C)c2ccccc2)ncc1C#N</t>
+          <t>NC(=O)c1nn(C2CCCCC2)c2c1CCc1cnc(Nc3ccccc3)nc1-2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>335.46</v>
+        <v>388.48</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
         <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" t="n">
         <v>3</v>
       </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
       <c r="M23" t="n">
-        <v>64.84</v>
+        <v>98.72</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B262D0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL524266</t>
+          <t>CHEMBL476782</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nc1nccc(-c2cc3c([nH]2)[C@@H](CCF)CNC3=O)n1</t>
+          <t>CCn1c(=O)/c(=C\Nc2cccc(NC(=O)C(C)(C)C)c2)s/c1=C(\C#N)C(=O)NC1(CO)CCCC1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nc1nccc(-c2cc3c([nH]2)[C@@H](CCF)CNC3=O)n1</t>
+          <t>CCn1c(=O)/c(=C\Nc2cccc(NC(=O)C(C)(C)C)c2)s/c1=C(\C#N)C(=O)NC1(CO)CCCC1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,16 +2071,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>275.29</v>
+        <v>511.65</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -2089,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>96.69</v>
+        <v>136.25</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26340&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL477604</t>
+          <t>CHEMBL162</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COc1cccc(Nc2nc(NC(C)c3ccccc3)ncc2C#N)c1</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>COc1cccc(Nc2nc(NC(C)c3ccccc3)ncc2C#N)c1</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>345.41</v>
+        <v>466.54</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>82.86</v>
+        <v>69.45</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B263B0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL1092830</t>
+          <t>CHEMBL522618</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cc1cc(NC(=O)Nc2ncc(CCNc3cc(Nc4nc[nH]n4)ncn3)s2)c(C(F)(F)F)o1</t>
+          <t>C[C@@H](Nc1cc2c(-c3ccc4c(c3)OCO4)noc2cn1)c1ccccc1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cc1cc(NC(=O)Nc2ncc(CCNc3cc(Nc4nc[nH]n4)ncn3)s2)c(C(F)(F)F)o1</t>
+          <t>C[C@@H](Nc1cc2c(-c3ccc4c(c3)OCO4)noc2cn1)c1ccccc1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>494.46</v>
+        <v>359.38</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>158.57</v>
+        <v>69.41</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26420&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL242237</t>
+          <t>CHEMBL476138</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccccc1Nc1ccnc(Nc2cccc(O)c2)n1</t>
+          <t>CCn1c(=O)/c(=C\Nc2ccccc2)s/c1=C(\C#N)C(=O)N1CCCC1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccccc1Nc1ccnc(Nc2cccc(O)c2)n1</t>
+          <t>CCn1c(=O)/c(=C\Nc2ccccc2)s/c1=C(\C#N)C(=O)N1CCCC1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>321.34</v>
+        <v>368.46</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
         <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>113.16</v>
+        <v>78.13</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26490&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL477605</t>
+          <t>CHEMBL478654</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CC(Nc1ncc(C#N)c(N2CCc3ccccc3C2)n1)c1ccccc1</t>
+          <t>CC(=O)N(C)c1cccc(Nc2nc(NCCc3cccs3)ncc2-c2nn[nH]n2)c1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CC(Nc1ncc(C#N)c(N2CCc3ccccc3C2)n1)c1ccccc1</t>
+          <t>CC(=O)N(C)c1cccc(Nc2nc(NCCc3cccs3)ncc2-c2nn[nH]n2)c1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>355.45</v>
+        <v>435.52</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>64.84</v>
+        <v>124.61</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26500&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL523634</t>
+          <t>CHEMBL475946</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cc1cscc1-c1noc2cnc(N[C@H](C)c3ccccc3)cc12</t>
+          <t>CCNC(=O)/C(C#N)=c1\s/c(=C/Nc2cccc(C(=O)NCCCN3CCCC3)c2)c(=O)n1CC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cc1cscc1-c1noc2cnc(N[C@H](C)c3ccccc3)cc12</t>
+          <t>CCNC(=O)/C(C#N)=c1\s/c(=C/Nc2cccc(C(=O)NCCCN3CCCC3)c2)c(=O)n1CC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>335.43</v>
+        <v>496.64</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>50.95</v>
+        <v>119.26</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E577F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26570&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL223367</t>
+          <t>CHEMBL557878</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N#Cc1ncc2nc1OCCCCCOc1cc(CCCO)c(Cl)cc1NC(=O)N2</t>
+          <t>Cn1cncc1-c1cc(OCc2ccccc2C(F)(F)F)c(C(N)=O)s1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>N#Cc1ncc2nc1OCCCCCOc1cc(CCCO)c(Cl)cc1NC(=O)N2</t>
+          <t>Cn1cncc1-c1cc(OCc2ccccc2C(F)(F)F)c(C(N)=O)s1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>431.88</v>
+        <v>381.38</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
         <v>3</v>
       </c>
-      <c r="I30" t="n">
-        <v>7</v>
-      </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
         <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>129.39</v>
+        <v>70.14</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B265E0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL225519</t>
+          <t>CHEMBL476124</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccncc3)cc21</t>
+          <t>NC(=O)c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccncc3)cc21</t>
+          <t>NC(=O)c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>213.24</v>
+        <v>307.21</v>
       </c>
       <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
         <v>2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3</v>
       </c>
       <c r="L31" t="n">
         <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>57.78</v>
+        <v>113.17</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5980B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26650&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL1208965</t>
+          <t>CHEMBL516110</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,44 +2596,44 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccc(NC5CCN(C)CC5)nc4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>CN1CCN(c2ccc(C(=O)Nc3n[nH]c4c3CN(C(=O)Cc3cccs3)C4)cc2)CC1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccc(NC5CCN(C)CC5)nc4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>CN1CCN(c2ccc(C(=O)Nc3n[nH]c4c3CN(C(=O)Cc3cccs3)C4)cc2)CC1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>587.15</v>
+        <v>450.57</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>98.3</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B266C0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL493930</t>
+          <t>CHEMBL477393</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,26 +2664,26 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>CCCN(CC1CC1)c1nc(NC(C)c2ccccc2)ncc1C#N</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>CCCN(CC1CC1)c1nc(NC(C)c2ccccc2)ncc1C#N</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>511.05</v>
+        <v>335.46</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -2692,16 +2692,16 @@
         <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>82.61</v>
+        <v>64.84</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26730&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL491021</t>
+          <t>CHEMBL524266</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,44 +2732,44 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1cc2c(-c3cc(Cl)cc(CCC(N)=O)c3)noc2cn1)c1ccccc1</t>
+          <t>Nc1nccc(-c2cc3c([nH]2)[C@@H](CCF)CNC3=O)n1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1cc2c(-c3cc(Cl)cc(CCC(N)=O)c3)noc2cn1)c1ccccc1</t>
+          <t>Nc1nccc(-c2cc3c([nH]2)[C@@H](CCF)CNC3=O)n1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>420.9</v>
+        <v>275.29</v>
       </c>
       <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="n">
         <v>2</v>
       </c>
-      <c r="I34" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>7</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4</v>
-      </c>
       <c r="M34" t="n">
-        <v>94.04000000000001</v>
+        <v>96.69</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B267A0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL1095716</t>
+          <t>CHEMBL477604</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,44 +2800,44 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CC(=O)c1ccc(N2CCN(C)CC2)cc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
+          <t>COc1cccc(Nc2nc(NC(C)c3ccccc3)ncc2C#N)c1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CC(=O)c1ccc(N2CCN(C)CC2)cc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
+          <t>COc1cccc(Nc2nc(NC(C)c3ccccc3)ncc2C#N)c1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>460.54</v>
+        <v>345.41</v>
       </c>
       <c r="H35" t="n">
         <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
         <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>122.27</v>
+        <v>82.86</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26810&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL597393</t>
+          <t>CHEMBL1092830</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,44 +2868,44 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1)NC(=O)Cc1cnc(Nc3ccc(OC)c(O)c3)nc1-2</t>
+          <t>Cc1cc(NC(=O)Nc2ncc(CCNc3cc(Nc4nc[nH]n4)ncn3)s2)c(C(F)(F)F)o1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1)NC(=O)Cc1cnc(Nc3ccc(OC)c(O)c3)nc1-2</t>
+          <t>Cc1cc(NC(=O)Nc2ncc(CCNc3cc(Nc4nc[nH]n4)ncn3)s2)c(C(F)(F)F)o1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>378.39</v>
+        <v>494.46</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
         <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>105.6</v>
+        <v>158.57</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5982E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26880&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL519286</t>
+          <t>CHEMBL242237</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,44 +2936,44 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccoc4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>NC(=O)c1ccccc1Nc1ccnc(Nc2cccc(O)c2)n1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccoc4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>NC(=O)c1ccccc1Nc1ccnc(Nc2cccc(O)c2)n1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>399.43</v>
+        <v>321.34</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
         <v>6</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>101.74</v>
+        <v>113.16</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B268F0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL497167</t>
+          <t>CHEMBL477605</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,44 +3004,44 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1ccccc1-c1cc(Cl)cc(-n2nc(C)c3cnc(N[C@@H](C)c4ccccc4)cc32)c1</t>
+          <t>CC(Nc1ncc(C#N)c(N2CCc3ccccc3C2)n1)c1ccccc1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1ccccc1-c1cc(Cl)cc(-n2nc(C)c3cnc(N[C@@H](C)c4ccccc4)cc32)c1</t>
+          <t>CC(Nc1ncc(C#N)c(N2CCc3ccccc3C2)n1)c1ccccc1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>496.01</v>
+        <v>355.45</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>71.84</v>
+        <v>64.84</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5983C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26960&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL519880</t>
+          <t>CHEMBL523634</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,44 +3072,44 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3c(C)nc(-c4cccc(C(=O)c5ccccc5)c4)n3n2)cc(OC)c1OC</t>
+          <t>Cc1cscc1-c1noc2cnc(N[C@H](C)c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3c(C)nc(-c4cccc(C(=O)c5ccccc5)c4)n3n2)cc(OC)c1OC</t>
+          <t>Cc1cscc1-c1noc2cnc(N[C@H](C)c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>495.54</v>
+        <v>335.43</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>99.87</v>
+        <v>50.95</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B269D0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL475947</t>
+          <t>CHEMBL223367</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,44 +3140,44 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FC(F)(F)c1ccc(Nc2nc(NCc3cccnc3)ncc2-c2nn[nH]n2)cc1</t>
+          <t>N#Cc1ncc2nc1OCCCCCOc1cc(CCCO)c(Cl)cc1NC(=O)N2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FC(F)(F)c1ccc(Nc2nc(NCc3cccnc3)ncc2-c2nn[nH]n2)cc1</t>
+          <t>N#Cc1ncc2nc1OCCCCCOc1cc(CCCO)c(Cl)cc1NC(=O)N2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>413.37</v>
+        <v>431.88</v>
       </c>
       <c r="H40" t="n">
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
-        <v>117.19</v>
+        <v>129.39</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5984A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26A40&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL1209605</t>
+          <t>CHEMBL225519</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,44 +3208,44 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccncc4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>O=C1NCCc2[nH]c(-c3ccncc3)cc21</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccncc4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>O=C1NCCc2[nH]c(-c3ccncc3)cc21</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>508.53</v>
+        <v>213.24</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>83.03</v>
+        <v>57.78</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26AB0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL562735</t>
+          <t>CHEMBL493930</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCC(O)C2)cc1Cl</t>
+          <t>C[C@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCC(O)C2)cc1Cl</t>
+          <t>C[C@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3291,14 +3291,14 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>497.02</v>
+        <v>511.05</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>5</v>
@@ -3313,7 +3313,7 @@
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>93.09</v>
+        <v>82.61</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26B20&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL2402083</t>
+          <t>CHEMBL522170</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-c3cn[nH]c3-c3nccs3)nc2N1C1CCOCC1</t>
+          <t>C[C@H](Oc1cc(-n2cnc3ccc(OCC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-c3cn[nH]c3-c3nccs3)nc2N1C1CCOCC1</t>
+          <t>C[C@H](Oc1cc(-n2cnc3ccc(OCC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3359,66 +3359,40 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>425.52</v>
+        <v>558.63</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K43" t="n">
         <v>5</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>100.13</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>250</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CHEMBL2406145</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Inhibition of GST-tagged Plk1 (unknown origin) assessed as inhibition of DEKTDDED phosphorylation at Thr1342 after 60 mins by TR-FRET assay</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>82.61</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5985F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26B90&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3430,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL508139</t>
+          <t>CHEMBL561286</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3438,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cc1nn(-c2cccc(C#N)c2)c2cc(N[C@@H](C)c3ccccc3)ncc12</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CNC2CC2)cc1Cl</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cc1nn(-c2cccc(C#N)c2)c2cc(N[C@@H](C)c3ccccc3)ncc12</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CNC2CC2)cc1Cl</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3453,66 +3427,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>353.43</v>
+        <v>466.99</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L44" t="n">
         <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>66.53</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>412</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>CHEMBL953116</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Inhibition of Plk1</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>81.65000000000001</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26C00&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3524,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL4531713</t>
+          <t>CHEMBL1094477</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3532,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NC(=O)c1sc2c([n+]1[O-])C(SC[C@H](N)C(=O)O)C(SC(F)(F)F)=CC2[N+](=O)[O-]</t>
+          <t>Cc1ccccc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NC(=O)c1sc2c([n+]1[O-])C(SC[C@H](N)C(=O)O)C(SC(F)(F)F)=CC2[N+](=O)[O-]</t>
+          <t>Cc1ccccc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3547,66 +3495,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>460.44</v>
+        <v>334.38</v>
       </c>
       <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="n">
         <v>3</v>
       </c>
-      <c r="I45" t="n">
-        <v>9</v>
-      </c>
-      <c r="J45" t="n">
-        <v>7</v>
-      </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>176.49</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>400</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>CHEMBL4351047</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>98.72</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5986D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26C70&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3618,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL515457</t>
+          <t>CHEMBL491021</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3626,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CCn1c(=O)/c(=C\Nc2ccc(OCCN(C)C)cc2)s/c1=C(/C#N)C(=O)NCC(F)F</t>
+          <t>C[C@@H](Nc1cc2c(-c3cc(Cl)cc(CCC(N)=O)c3)noc2cn1)c1ccccc1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CCn1c(=O)/c(=C\Nc2ccc(OCCN(C)C)cc2)s/c1=C(/C#N)C(=O)NCC(F)F</t>
+          <t>C[C@@H](Nc1cc2c(-c3cc(Cl)cc(CCC(N)=O)c3)noc2cn1)c1ccccc1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3641,66 +3563,40 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>465.53</v>
+        <v>420.9</v>
       </c>
       <c r="H46" t="n">
         <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>99.39</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>74</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CHEMBL985261</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>94.04000000000001</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26CE0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3712,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL2207846</t>
+          <t>CHEMBL1095716</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3720,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CC(=O)N1CCC[C@H]1C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc1cnc[nH]1)C(=O)N[C@@H](CO)C(=O)N[C@H](C(N)=O)[C@@H](C)OP(=O)(O)O</t>
+          <t>CC(=O)c1ccc(N2CCN(C)CC2)cc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CC(=O)N1CCC[C@H]1C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc1cnc[nH]1)C(=O)N[C@@H](CO)C(=O)N[C@H](C(N)=O)[C@@H](C)OP(=O)(O)O</t>
+          <t>CC(=O)c1ccc(N2CCN(C)CC2)cc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3735,66 +3631,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>674.65</v>
+        <v>460.54</v>
       </c>
       <c r="H47" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J47" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>295.47</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>620</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CHEMBL4387037</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 PBD (unknown origin) using GPMQSpTPLNG-OH as fluorescent probe incubated for 30 mins by fluorescence polarization assay</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>122.27</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5987B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26D50&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3806,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL559845</t>
+          <t>CHEMBL597393</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3814,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3)ncc1CC2</t>
+          <t>COc1ccc2c(c1)NC(=O)Cc1cnc(Nc3ccc(OC)c(O)c3)nc1-2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3)ncc1CC2</t>
+          <t>COc1ccc2c(c1)NC(=O)Cc1cnc(Nc3ccc(OC)c(O)c3)nc1-2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3829,20 +3699,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>320.36</v>
+        <v>378.39</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
         <v>4</v>
@@ -3851,44 +3721,18 @@
         <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>98.72</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>68</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CHEMBL1809664</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 assessed as [33P]-gamma-ATP incorporation into substrate by gamma counting</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>105.6</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26DC0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3900,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL3260241</t>
+          <t>CHEMBL519880</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3908,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>COc1cccc(/C=C/C(=O)NNC(=O)c2ccc3c(c2)OCCO3)c1</t>
+          <t>COc1cc(Nc2ncc3c(C)nc(-c4cccc(C(=O)c5ccccc5)c4)n3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>COc1cccc(/C=C/C(=O)NNC(=O)c2ccc3c(c2)OCCO3)c1</t>
+          <t>COc1cc(Nc2ncc3c(C)nc(-c4cccc(C(=O)c5ccccc5)c4)n3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3923,66 +3767,40 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>354.36</v>
+        <v>495.54</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>85.89</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>30</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL3268272</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin) using RRRDELMEASFADQEAKV as substrate after 20 mins by liquid scintillation counting analysis</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>99.87</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26E30&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3994,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL2205435</t>
+          <t>CHEMBL475947</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4002,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>COc1ccc(Nc2nccc(Nc3c(N[C@H](C)C(C)(C)C)c(=O)c3=O)n2)c(OC)c1</t>
+          <t>FC(F)(F)c1ccc(Nc2nc(NCc3cccnc3)ncc2-c2nn[nH]n2)cc1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>COc1ccc(Nc2nccc(Nc3c(N[C@H](C)C(C)(C)C)c(=O)c3=O)n2)c(OC)c1</t>
+          <t>FC(F)(F)c1ccc(Nc2nc(NCc3cccnc3)ncc2-c2nn[nH]n2)cc1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4017,66 +3835,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>425.49</v>
+        <v>413.37</v>
       </c>
       <c r="H50" t="n">
         <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>114.47</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>771</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL2210942</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant GST-tagged PLK1 using biotin-ahx-AKMETTFYDDALNASFLPSEKKK-amide as substrate after 30 mins by scintillation counting analysis in presence of gamma-[33P]ATP</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>117.19</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26EA0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4088,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL603469</t>
+          <t>CHEMBL1209605</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4096,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccncc4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccncc4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4111,66 +3903,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>439.47</v>
+        <v>508.53</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L51" t="n">
         <v>5</v>
       </c>
       <c r="M51" t="n">
-        <v>88.65000000000001</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>220</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL1908672</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Binding constant for PLK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>83.03</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E598970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C3B26F10&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
